--- a/biology/Zoologie/Cydnus_brevicrassus/Cydnus_brevicrassus.xlsx
+++ b/biology/Zoologie/Cydnus_brevicrassus/Cydnus_brevicrassus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cydnus brevicrassus est une espèce fossile d'insectes hétéroptères (les punaises) de la famille des Cydnidae et du genre Cydnus.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cydnus brevicrassus est décrite en 1891 par le paléontologue allemand Bruno Förster (1852-1924)[1],[2]. 
-Ajout fossiles allemands
-En 1937 le paléontologue français Nicolas Théobald (1903-1981) ajoute des fossiles allemands de Kleinkembs en Bade-Wurtemberg, et en fait une nouvelle description.
-Fossiles
-Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées, toutes du Rupélien ou Oligocène inférieur, une en France de Brunnstatt, décrite en 1891 par Bruno Förster[1] et la dernière en Allemagne, décrite en 1937 par Nicolas Théobald[3],[2].
-Étymologie
-L'épithète spécifique brevicrassus signifie en latin « court et épais ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cydnus brevicrassus est décrite en 1891 par le paléontologue allemand Bruno Förster (1852-1924),. 
 </t>
         </is>
       </c>
@@ -545,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[4],[note 1] : Origine : Brunnstatt, Kleinkembs. 
-« Couleur noir brunâtre. Tête subrectangualire, lobes latéraux aussi longs que le lobe central et couverts de ponctuations ; yeux latéraux de forme arrondie. Prothorax fortement rétréci à l'avant, où il est échancré pour recevoir la tête ; bords latéraux convexes ; bord postérieur bombé vers l'arrière ; on voit les hanches I et, entre les deux, la trompe qui s'étend jusqu'entre les hanches II ; scutellum non visible sur notre échantillon, mais sur celui de Brunnstatt, il est équilatéral. Abdomen montre cinq segments bien visibles ; orifice cloaqual à l'arrière. Élytre avec corie nette et ornée de ponctuations noires comme le thorax. »[3].
-Dimensions
-La longueur totale du corps est de 3,8 mm[3].
-Affinités
-« L'attribution au g. Cydnus reste douteuse. Trois échantillons de Kleinkembs : ( R901 + 988, 904+986,754, ?), un échantillon de Brunnstatt. »[3].
+          <t>Ajout fossiles allemands</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937 le paléontologue français Nicolas Théobald (1903-1981) ajoute des fossiles allemands de Kleinkembs en Bade-Wurtemberg, et en fait une nouvelle description.
 </t>
         </is>
       </c>
@@ -582,13 +590,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées, toutes du Rupélien ou Oligocène inférieur, une en France de Brunnstatt, décrite en 1891 par Bruno Förster et la dernière en Allemagne, décrite en 1937 par Nicolas Théobald,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique brevicrassus signifie en latin « court et épais ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Origine : Brunnstatt, Kleinkembs. 
+« Couleur noir brunâtre. Tête subrectangualire, lobes latéraux aussi longs que le lobe central et couverts de ponctuations ; yeux latéraux de forme arrondie. Prothorax fortement rétréci à l'avant, où il est échancré pour recevoir la tête ; bords latéraux convexes ; bord postérieur bombé vers l'arrière ; on voit les hanches I et, entre les deux, la trompe qui s'étend jusqu'entre les hanches II ; scutellum non visible sur notre échantillon, mais sur celui de Brunnstatt, il est équilatéral. Abdomen montre cinq segments bien visibles ; orifice cloaqual à l'arrière. Élytre avec corie nette et ornée de ponctuations noires comme le thorax. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 3,8 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'attribution au g. Cydnus reste douteuse. Trois échantillons de Kleinkembs : ( R901 + 988, 904+986,754, ?), un échantillon de Brunnstatt. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_brevicrassus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Cydnus est cosmopolite. »[5].
+« Le g. Cydnus est cosmopolite. ».
 </t>
         </is>
       </c>
